--- a/Clients BL.xlsx
+++ b/Clients BL.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Mon Drive\streamlit-berenbaum-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8BEDA-FDCD-465A-BE90-CA200FA392A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF8ABF6-D434-4E20-8D08-8BE71A726AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="377" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{46644170-985F-495D-9511-42E94F2516C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,22 @@
     <sheet name="ComptaCli" sheetId="3" r:id="rId3"/>
     <sheet name="Escrow" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -28,746 +42,770 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="266">
+  <si>
+    <t>Dossier N</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Catégories</t>
+  </si>
+  <si>
+    <t>Sous-catégories</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Montant honoraires (US $)</t>
+  </si>
+  <si>
+    <t>Autres frais (US $)</t>
+  </si>
+  <si>
+    <t>Acompte 1</t>
+  </si>
+  <si>
+    <t>Date Acompte 1</t>
+  </si>
+  <si>
+    <t>mode de paiement</t>
+  </si>
+  <si>
+    <t>Escrow</t>
+  </si>
+  <si>
+    <t>Acompte 2</t>
+  </si>
+  <si>
+    <t>Date Acompte 2</t>
+  </si>
+  <si>
+    <t>Acompte 3</t>
+  </si>
+  <si>
+    <t>Date Acompte 3</t>
+  </si>
+  <si>
+    <t>Acompte 4</t>
+  </si>
+  <si>
+    <t>Date Acompte 4</t>
+  </si>
+  <si>
+    <t>Dossier envoyé</t>
+  </si>
+  <si>
+    <t>Date envoi</t>
+  </si>
+  <si>
+    <t>Dossier accepté</t>
+  </si>
+  <si>
+    <t>Date acceptation</t>
+  </si>
+  <si>
+    <t>Dossier refusé</t>
+  </si>
+  <si>
+    <t>Date refus</t>
+  </si>
+  <si>
+    <t>Dossier Annulé</t>
+  </si>
+  <si>
+    <t>Date annulation</t>
+  </si>
+  <si>
+    <t>RFE</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>MELANIE TRECK</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>AURA KAKON</t>
+  </si>
+  <si>
+    <t>98 - Naturalization</t>
+  </si>
+  <si>
+    <t>Naturalization</t>
+  </si>
+  <si>
+    <t>LUCAS WARTIN</t>
+  </si>
+  <si>
+    <t>5 - Family</t>
+  </si>
+  <si>
+    <t>Marriage - USC</t>
+  </si>
+  <si>
+    <t>GC Marriage</t>
+  </si>
+  <si>
+    <t>ANITA RIVELLA</t>
+  </si>
+  <si>
+    <t>99 - Other</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Re-entry Permit</t>
+  </si>
+  <si>
+    <t>PIERRE ELMALEH</t>
+  </si>
+  <si>
+    <t>DAVID JARMOUNE</t>
+  </si>
+  <si>
+    <t>3 - Treaty</t>
+  </si>
+  <si>
+    <t>01     E-2</t>
+  </si>
+  <si>
+    <t>E-2  Inv.</t>
+  </si>
+  <si>
+    <t>12937-1</t>
+  </si>
+  <si>
+    <t>DAVID ATTALI</t>
+  </si>
+  <si>
+    <t>L-1-129</t>
+  </si>
+  <si>
+    <t>12937-2</t>
+  </si>
+  <si>
+    <t>L-1 - CP</t>
+  </si>
+  <si>
+    <t>STEEVES CHAOUAT</t>
+  </si>
+  <si>
+    <t>AMIN KHIARI</t>
+  </si>
+  <si>
+    <t>03     E-2 ESE</t>
+  </si>
+  <si>
+    <t>E-2 ESE Inv.</t>
+  </si>
+  <si>
+    <t>ELSA ASSOULINE</t>
+  </si>
+  <si>
+    <t>E-2 Inv. Ren.</t>
+  </si>
+  <si>
+    <t>MAHAMADOU</t>
+  </si>
+  <si>
+    <t>E-2 ESE</t>
+  </si>
+  <si>
+    <t>YONY SITBON</t>
+  </si>
+  <si>
+    <t>STEPHANIE CHOQUART</t>
+  </si>
+  <si>
+    <t>MARTIN BIZOUARD</t>
+  </si>
+  <si>
+    <t>11    Executive Manager</t>
+  </si>
+  <si>
+    <t>1-I-140</t>
+  </si>
+  <si>
+    <t>remboursement frais d'immigration</t>
+  </si>
+  <si>
+    <t>LAURA MELKI</t>
+  </si>
+  <si>
+    <t>GC CP</t>
+  </si>
+  <si>
+    <t>EDDIE - ANNA</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>AGNES</t>
+  </si>
+  <si>
+    <t>GC DV</t>
+  </si>
+  <si>
+    <t>QUENTIN GARRIGOU</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE MEYER</t>
+  </si>
+  <si>
+    <t>(3005 + 3492)</t>
+  </si>
+  <si>
+    <t>ANDRIJA</t>
+  </si>
+  <si>
+    <t>DANIELLE LAURET</t>
+  </si>
+  <si>
+    <t>GC family</t>
+  </si>
+  <si>
+    <t>SEBASTIEN BLIARD</t>
+  </si>
+  <si>
+    <t>MARIE SOPHIE K</t>
+  </si>
+  <si>
+    <t>12970-1</t>
+  </si>
+  <si>
+    <t>EDOUARD JOLIVET</t>
+  </si>
+  <si>
+    <t>02     E-2 Inv. Ren.</t>
+  </si>
+  <si>
+    <t>12970-2</t>
+  </si>
+  <si>
+    <t>FAMILLE JOLIVET</t>
+  </si>
+  <si>
+    <t>E-2 der</t>
+  </si>
+  <si>
+    <t>HELENE ROTH BERGMAN</t>
+  </si>
+  <si>
+    <t>JEAN CHRISTOPHE BERTAUX</t>
+  </si>
+  <si>
+    <t>JOHAN BRUN</t>
+  </si>
+  <si>
+    <t>04     E-2 ESE Ren.</t>
+  </si>
+  <si>
+    <t>E-2 ESE ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVETLANA </t>
+  </si>
+  <si>
+    <t>GHALIA</t>
+  </si>
+  <si>
+    <t>dhs: 3005</t>
+  </si>
+  <si>
+    <t>ALIX AASILA</t>
+  </si>
+  <si>
+    <t>GC Perm</t>
+  </si>
+  <si>
+    <t>ALIX ASSILA</t>
+  </si>
+  <si>
+    <t>E-2 ES Ren</t>
+  </si>
+  <si>
+    <t>ROMAIN GUESNOUIN</t>
+  </si>
+  <si>
+    <t>FRANCK VERGES</t>
+  </si>
+  <si>
+    <t>CONSTANCE BARRIAL</t>
+  </si>
+  <si>
+    <t>I-751</t>
+  </si>
+  <si>
+    <t>13/03/2025 dhs 750</t>
+  </si>
+  <si>
+    <t>MOLINARD</t>
+  </si>
+  <si>
+    <t>1 - Affaires / Tourisme</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>B-1 EOS</t>
+  </si>
+  <si>
+    <t>dhs: 940</t>
+  </si>
+  <si>
+    <t>ALEX ZARKA</t>
+  </si>
+  <si>
+    <t>LAURENT CARON</t>
+  </si>
+  <si>
+    <t>Other - Opinion letter</t>
+  </si>
+  <si>
+    <t>FERBNANDES AURELIE</t>
+  </si>
+  <si>
+    <t>SEBAN JULIEN</t>
+  </si>
+  <si>
+    <t>THIRION</t>
+  </si>
+  <si>
+    <t>12998-1</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>4 - Trader</t>
+  </si>
+  <si>
+    <t>07     R-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-1 I-129 </t>
+  </si>
+  <si>
+    <t>12998-2</t>
+  </si>
+  <si>
+    <t>12999-1</t>
+  </si>
+  <si>
+    <t>DAVID EMNNAUEL COHEN</t>
+  </si>
+  <si>
+    <t>GC - I-130</t>
+  </si>
+  <si>
+    <t>dhs: 675</t>
+  </si>
+  <si>
+    <t>12999-2</t>
+  </si>
+  <si>
+    <t>ROXANNA DUSSAUX</t>
+  </si>
+  <si>
+    <t>B-1 COS</t>
+  </si>
+  <si>
+    <t>KONSTANTINOS MELAS</t>
+  </si>
+  <si>
+    <t>06     L-2</t>
+  </si>
+  <si>
+    <t>L-2</t>
+  </si>
+  <si>
+    <t>LIZZIE AUSSENAC</t>
+  </si>
+  <si>
+    <t>05     H-1B</t>
+  </si>
+  <si>
+    <t>H-1B</t>
+  </si>
+  <si>
+    <t>REMI ROUSSELL</t>
+  </si>
+  <si>
+    <t>13/03/2025 DHS 215</t>
+  </si>
+  <si>
+    <t>NATALIA CABREJA</t>
+  </si>
+  <si>
+    <t>dhs: 215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYRINE </t>
+  </si>
+  <si>
+    <t>EGOR ARTEMEV</t>
+  </si>
+  <si>
+    <t>13007-1</t>
+  </si>
+  <si>
+    <t>INES BERDUGO</t>
+  </si>
+  <si>
+    <t>13007-2</t>
+  </si>
+  <si>
+    <t>MICHAEL AMIRASLANI</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t>B-2 EOS</t>
+  </si>
+  <si>
+    <t>dhs: 470</t>
+  </si>
+  <si>
+    <t>ANGELNIA SALEM</t>
+  </si>
+  <si>
+    <t>GC - CP</t>
+  </si>
+  <si>
+    <t>NADIA LENROUE</t>
+  </si>
+  <si>
+    <t>GC - AOS</t>
+  </si>
+  <si>
+    <t>OHAYON</t>
+  </si>
+  <si>
+    <t>dhs: 630 X2</t>
+  </si>
+  <si>
+    <t>LAURA BECHT</t>
+  </si>
+  <si>
+    <t>GC - Perm</t>
+  </si>
+  <si>
+    <t>LOUKA LARROUTUROU</t>
+  </si>
+  <si>
+    <t>B-2 COS</t>
+  </si>
+  <si>
+    <t>PASCAL BEAUDICHON</t>
+  </si>
+  <si>
+    <t>STAMATE</t>
+  </si>
+  <si>
+    <t>dhs: 470 x 2</t>
+  </si>
+  <si>
+    <t>AVTANDIL</t>
+  </si>
+  <si>
+    <t>DOUX</t>
+  </si>
+  <si>
+    <t>JULIEN BEUZELIN</t>
+  </si>
+  <si>
+    <t>ANNA MESZAROS</t>
+  </si>
+  <si>
+    <t>CINDY TAIEB/YOHAN COHEN</t>
+  </si>
+  <si>
+    <t>MARIUS FRAYSSINET</t>
+  </si>
+  <si>
+    <t>13023-1</t>
+  </si>
+  <si>
+    <t>FAURE NICOLAS</t>
+  </si>
+  <si>
+    <t>13023-2</t>
+  </si>
+  <si>
+    <t>3-AOS</t>
+  </si>
+  <si>
+    <t>BERTRAND COSSE</t>
+  </si>
+  <si>
+    <t>ANTOINE FRIOT</t>
+  </si>
+  <si>
+    <t>CLARA</t>
+  </si>
+  <si>
+    <t>MAEVA DILIER</t>
+  </si>
+  <si>
+    <t>ROMAIN ROTGES</t>
+  </si>
+  <si>
+    <t>AEL PAGNY</t>
+  </si>
+  <si>
+    <t>I-407</t>
+  </si>
+  <si>
+    <t>INCA PAGNY</t>
+  </si>
+  <si>
+    <t>LISA JANSEN</t>
+  </si>
+  <si>
+    <t>CANOVAS VIRGINIE</t>
+  </si>
+  <si>
+    <t>MELKI KATIA</t>
+  </si>
+  <si>
+    <t>POLANSKI CINDY</t>
+  </si>
+  <si>
+    <t>JORDAN BOUTBOUL</t>
+  </si>
+  <si>
+    <t>AGASSE ARNAUD</t>
+  </si>
+  <si>
+    <t>2 - Etudiants</t>
+  </si>
+  <si>
+    <t>F-1</t>
+  </si>
+  <si>
+    <t>DAVID BEAUVIRONNOIS</t>
+  </si>
+  <si>
+    <t>ETIENNE LE PEILLET</t>
+  </si>
+  <si>
+    <t>JULIEN UNVOY</t>
+  </si>
+  <si>
+    <t>ALICE PACAUT</t>
+  </si>
+  <si>
+    <t>ANA EDDIE</t>
+  </si>
+  <si>
+    <t>ANA ROMAIN</t>
+  </si>
+  <si>
+    <t>SHIREL LALOUM</t>
+  </si>
+  <si>
+    <t>GC - Family - I-130</t>
+  </si>
+  <si>
+    <t>NATACHA HARKHAM</t>
+  </si>
+  <si>
+    <t>E-2 deriv</t>
+  </si>
+  <si>
+    <t>ANA RFE NIW</t>
+  </si>
+  <si>
+    <t>EVA AGASSE</t>
+  </si>
+  <si>
+    <t>SOHPIA ANDJORIN</t>
+  </si>
+  <si>
+    <t>dhs: 630</t>
+  </si>
+  <si>
+    <t>KLANIK</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>ANA ANDRIJA</t>
+  </si>
+  <si>
+    <t>IVAN ARTEMEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA PRAKHAR </t>
+  </si>
+  <si>
+    <t>CHRISTIAN THIRION</t>
+  </si>
+  <si>
+    <t>Sous-categorie</t>
+  </si>
+  <si>
+    <t>1-COS</t>
+  </si>
+  <si>
+    <t>2-EOS</t>
+  </si>
+  <si>
+    <t>1-Inv.</t>
+  </si>
+  <si>
+    <t>2-CP</t>
+  </si>
+  <si>
+    <t>3-USCIS</t>
+  </si>
+  <si>
+    <t>1-CP</t>
+  </si>
+  <si>
+    <t>2-USCIS</t>
+  </si>
+  <si>
+    <t>1-Initial</t>
+  </si>
+  <si>
+    <t>2-Extension</t>
+  </si>
+  <si>
+    <t>3-Transfer</t>
+  </si>
+  <si>
+    <t>4-CP</t>
+  </si>
+  <si>
+    <t>2-CP.1</t>
+  </si>
+  <si>
+    <t>1-Employement</t>
+  </si>
+  <si>
+    <t>2-AOS</t>
+  </si>
+  <si>
+    <t>3-I-140 &amp; AOS</t>
+  </si>
+  <si>
+    <t>4-CP.1</t>
+  </si>
+  <si>
+    <t>4-Perm</t>
+  </si>
+  <si>
+    <t>5-CP</t>
+  </si>
+  <si>
+    <t>1-I-526</t>
+  </si>
+  <si>
+    <t>2-AOS.1</t>
+  </si>
+  <si>
+    <t>3-I527 &amp; AOS</t>
+  </si>
+  <si>
+    <t>4-CP.2</t>
+  </si>
+  <si>
+    <t>I-829</t>
+  </si>
+  <si>
+    <t>2-I-130</t>
+  </si>
+  <si>
+    <t>4-I-130 &amp; AOS</t>
+  </si>
+  <si>
+    <t>5-CP.1</t>
+  </si>
+  <si>
+    <t>1-CP.1</t>
+  </si>
+  <si>
+    <t>2-AOS.2</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Travel Permit</t>
+  </si>
+  <si>
+    <t>Work Permit</t>
+  </si>
+  <si>
+    <t>I-90</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>F-2</t>
+  </si>
+  <si>
+    <t>01     E-1 Trad.</t>
+  </si>
+  <si>
+    <t>02     E-1 Trad. Ren.</t>
+  </si>
+  <si>
+    <t>03     E-1  ESE</t>
+  </si>
+  <si>
+    <t>04     E-1 ESE Ren.</t>
+  </si>
+  <si>
+    <t>08     TN</t>
+  </si>
+  <si>
+    <t>09     K-1</t>
+  </si>
+  <si>
+    <t>10    Residence Permanente</t>
+  </si>
+  <si>
+    <t>12    EB-2/EB-3</t>
+  </si>
+  <si>
+    <t>13    EB-5</t>
+  </si>
+  <si>
+    <t>Family - LPR</t>
+  </si>
+  <si>
+    <t>6 - Lottery</t>
+  </si>
+  <si>
+    <t>DV lottery</t>
+  </si>
   <si>
     <t>ID_Client</t>
   </si>
   <si>
-    <t>Dossier N</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sous-categorie</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>Montant honoraires (US $)</t>
-  </si>
-  <si>
-    <t>Autres frais (US $)</t>
-  </si>
-  <si>
-    <t>Acompte 1</t>
-  </si>
-  <si>
-    <t>Acompte 2</t>
-  </si>
-  <si>
-    <t>Acompte 3</t>
-  </si>
-  <si>
-    <t>Acompte 4</t>
-  </si>
-  <si>
-    <t>Dossier envoyé</t>
-  </si>
-  <si>
-    <t>Date envoi</t>
-  </si>
-  <si>
-    <t>Dossier refusé</t>
-  </si>
-  <si>
-    <t>Dossier Annulé</t>
-  </si>
-  <si>
-    <t>RFE</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>Date Acompte 1</t>
-  </si>
-  <si>
-    <t>Escrow</t>
-  </si>
-  <si>
-    <t>MELANIE TRECK</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>AURA KAKON</t>
-  </si>
-  <si>
-    <t>98 - Naturalization</t>
-  </si>
-  <si>
-    <t>Naturalization</t>
-  </si>
-  <si>
-    <t>LUCAS WARTIN</t>
-  </si>
-  <si>
-    <t>5 - Family</t>
-  </si>
-  <si>
-    <t>Marriage - USC</t>
-  </si>
-  <si>
-    <t>GC Marriage</t>
-  </si>
-  <si>
-    <t>ANITA RIVELLA</t>
-  </si>
-  <si>
-    <t>99 - Other</t>
-  </si>
-  <si>
-    <t>Divers</t>
-  </si>
-  <si>
-    <t>Re-entry Permit</t>
-  </si>
-  <si>
-    <t>PIERRE ELMALEH</t>
-  </si>
-  <si>
-    <t>DAVID JARMOUNE</t>
-  </si>
-  <si>
-    <t>3 - Treaty</t>
-  </si>
-  <si>
-    <t>01     E-2</t>
-  </si>
-  <si>
-    <t>E-2  Inv.</t>
-  </si>
-  <si>
-    <t>12937-1</t>
-  </si>
-  <si>
-    <t>DAVID ATTALI</t>
-  </si>
-  <si>
-    <t>L-1-129</t>
-  </si>
-  <si>
-    <t>12937-2</t>
-  </si>
-  <si>
-    <t>L-1 - CP</t>
-  </si>
-  <si>
-    <t>STEEVES CHAOUAT</t>
-  </si>
-  <si>
-    <t>AMIN KHIARI</t>
-  </si>
-  <si>
-    <t>03     E-2 ESE</t>
-  </si>
-  <si>
-    <t>E-2 ESE Inv.</t>
-  </si>
-  <si>
-    <t>ELSA ASSOULINE</t>
-  </si>
-  <si>
-    <t>E-2 Inv. Ren.</t>
-  </si>
-  <si>
-    <t>MAHAMADOU</t>
-  </si>
-  <si>
-    <t>E-2 ESE</t>
-  </si>
-  <si>
-    <t>YONY SITBON</t>
-  </si>
-  <si>
-    <t>STEPHANIE CHOQUART</t>
-  </si>
-  <si>
-    <t>MARTIN BIZOUARD</t>
-  </si>
-  <si>
-    <t>11    Executive Manager</t>
-  </si>
-  <si>
-    <t>1-I-140</t>
-  </si>
-  <si>
-    <t>remboursement frais d'immigration</t>
-  </si>
-  <si>
-    <t>LAURA MELKI</t>
-  </si>
-  <si>
-    <t>GC CP</t>
-  </si>
-  <si>
-    <t>EDDIE - ANNA</t>
-  </si>
-  <si>
-    <t>Referral</t>
-  </si>
-  <si>
-    <t>AGNES</t>
-  </si>
-  <si>
-    <t>GC DV</t>
-  </si>
-  <si>
-    <t>QUENTIN GARRIGOU</t>
-  </si>
-  <si>
-    <t>CHRISTOPHE MEYER</t>
-  </si>
-  <si>
-    <t>(3005 + 3492)</t>
-  </si>
-  <si>
-    <t>ANDRIJA</t>
-  </si>
-  <si>
-    <t>DANIELLE LAURET</t>
-  </si>
-  <si>
-    <t>GC family</t>
-  </si>
-  <si>
-    <t>SEBASTIEN BLIARD</t>
-  </si>
-  <si>
-    <t>MARIE SOPHIE K</t>
-  </si>
-  <si>
-    <t>12970-1</t>
-  </si>
-  <si>
-    <t>EDOUARD JOLIVET</t>
-  </si>
-  <si>
-    <t>02     E-2 Inv. Ren.</t>
-  </si>
-  <si>
-    <t>12970-2</t>
-  </si>
-  <si>
-    <t>FAMILLE JOLIVET</t>
-  </si>
-  <si>
-    <t>E-2 der</t>
-  </si>
-  <si>
-    <t>HELENE ROTH BERGMAN</t>
-  </si>
-  <si>
-    <t>JEAN CHRISTOPHE BERTAUX</t>
-  </si>
-  <si>
-    <t>JOHAN BRUN</t>
-  </si>
-  <si>
-    <t>04     E-2 ESE Ren.</t>
-  </si>
-  <si>
-    <t>E-2 ESE ren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVETLANA </t>
-  </si>
-  <si>
-    <t>GHALIA</t>
-  </si>
-  <si>
-    <t>dhs: 3005</t>
-  </si>
-  <si>
-    <t>ALIX AASILA</t>
-  </si>
-  <si>
-    <t>GC Perm</t>
-  </si>
-  <si>
-    <t>ALIX ASSILA</t>
-  </si>
-  <si>
-    <t>E-2 ES Ren</t>
-  </si>
-  <si>
-    <t>ROMAIN GUESNOUIN</t>
-  </si>
-  <si>
-    <t>FRANCK VERGES</t>
-  </si>
-  <si>
-    <t>CONSTANCE BARRIAL</t>
-  </si>
-  <si>
-    <t>I-751</t>
-  </si>
-  <si>
-    <t>13/03/2025 dhs 750</t>
-  </si>
-  <si>
-    <t>MOLINARD</t>
-  </si>
-  <si>
-    <t>1 - Affaires / Tourisme</t>
-  </si>
-  <si>
-    <t>B-1</t>
-  </si>
-  <si>
-    <t>B-1 EOS</t>
-  </si>
-  <si>
-    <t>dhs: 940</t>
-  </si>
-  <si>
-    <t>ALEX ZARKA</t>
-  </si>
-  <si>
-    <t>LAURENT CARON</t>
-  </si>
-  <si>
-    <t>Other - Opinion letter</t>
-  </si>
-  <si>
-    <t>FERBNANDES AURELIE</t>
-  </si>
-  <si>
-    <t>SEBAN JULIEN</t>
-  </si>
-  <si>
-    <t>THIRION</t>
-  </si>
-  <si>
-    <t>12998-1</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>4 - Trader</t>
-  </si>
-  <si>
-    <t>07     R-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-1 I-129 </t>
-  </si>
-  <si>
-    <t>12998-2</t>
-  </si>
-  <si>
-    <t>12999-1</t>
-  </si>
-  <si>
-    <t>DAVID EMNNAUEL COHEN</t>
-  </si>
-  <si>
-    <t>GC - I-130</t>
-  </si>
-  <si>
-    <t>dhs: 675</t>
-  </si>
-  <si>
-    <t>12999-2</t>
-  </si>
-  <si>
-    <t>ROXANNA DUSSAUX</t>
-  </si>
-  <si>
-    <t>B-1 COS</t>
-  </si>
-  <si>
-    <t>KONSTANTINOS MELAS</t>
-  </si>
-  <si>
-    <t>06     L-2</t>
-  </si>
-  <si>
-    <t>L-2</t>
-  </si>
-  <si>
-    <t>LIZZIE AUSSENAC</t>
-  </si>
-  <si>
-    <t>05     H-1B</t>
-  </si>
-  <si>
-    <t>H-1B</t>
-  </si>
-  <si>
-    <t>REMI ROUSSELL</t>
-  </si>
-  <si>
-    <t>13/03/2025 DHS 215</t>
-  </si>
-  <si>
-    <t>NATALIA CABREJA</t>
-  </si>
-  <si>
-    <t>dhs: 215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYRINE </t>
-  </si>
-  <si>
-    <t>EGOR ARTEMEV</t>
-  </si>
-  <si>
-    <t>13007-1</t>
-  </si>
-  <si>
-    <t>INES BERDUGO</t>
-  </si>
-  <si>
-    <t>13007-2</t>
-  </si>
-  <si>
-    <t>MICHAEL AMIRASLANI</t>
-  </si>
-  <si>
-    <t>B-2</t>
-  </si>
-  <si>
-    <t>B-2 EOS</t>
-  </si>
-  <si>
-    <t>dhs: 470</t>
-  </si>
-  <si>
-    <t>ANGELNIA SALEM</t>
-  </si>
-  <si>
-    <t>GC - CP</t>
-  </si>
-  <si>
-    <t>NADIA LENROUE</t>
-  </si>
-  <si>
-    <t>GC - AOS</t>
-  </si>
-  <si>
-    <t>OHAYON</t>
-  </si>
-  <si>
-    <t>dhs: 630 X2</t>
-  </si>
-  <si>
-    <t>LAURA BECHT</t>
-  </si>
-  <si>
-    <t>GC - Perm</t>
-  </si>
-  <si>
-    <t>LOUKA LARROUTUROU</t>
-  </si>
-  <si>
-    <t>B-2 COS</t>
-  </si>
-  <si>
-    <t>PASCAL BEAUDICHON</t>
-  </si>
-  <si>
-    <t>STAMATE</t>
-  </si>
-  <si>
-    <t>dhs: 470 x 2</t>
-  </si>
-  <si>
-    <t>AVTANDIL</t>
-  </si>
-  <si>
-    <t>DOUX</t>
-  </si>
-  <si>
-    <t>JULIEN BEUZELIN</t>
-  </si>
-  <si>
-    <t>ANNA MESZAROS</t>
-  </si>
-  <si>
-    <t>CINDY TAIEB/YOHAN COHEN</t>
-  </si>
-  <si>
-    <t>MARIUS FRAYSSINET</t>
-  </si>
-  <si>
-    <t>13023-1</t>
-  </si>
-  <si>
-    <t>FAURE NICOLAS</t>
-  </si>
-  <si>
-    <t>13023-2</t>
-  </si>
-  <si>
-    <t>3-AOS</t>
-  </si>
-  <si>
-    <t>BERTRAND COSSE</t>
-  </si>
-  <si>
-    <t>ANTOINE FRIOT</t>
-  </si>
-  <si>
-    <t>CLARA</t>
-  </si>
-  <si>
-    <t>MAEVA DILIER</t>
-  </si>
-  <si>
-    <t>ROMAIN ROTGES</t>
-  </si>
-  <si>
-    <t>AEL PAGNY</t>
-  </si>
-  <si>
-    <t>I-407</t>
-  </si>
-  <si>
-    <t>INCA PAGNY</t>
-  </si>
-  <si>
-    <t>LISA JANSEN</t>
-  </si>
-  <si>
-    <t>CANOVAS VIRGINIE</t>
-  </si>
-  <si>
-    <t>MELKI KATIA</t>
-  </si>
-  <si>
-    <t>POLANSKI CINDY</t>
-  </si>
-  <si>
-    <t>JORDAN BOUTBOUL</t>
-  </si>
-  <si>
-    <t>AGASSE ARNAUD</t>
-  </si>
-  <si>
-    <t>2 - Etudiants</t>
-  </si>
-  <si>
-    <t>F-1</t>
-  </si>
-  <si>
-    <t>DAVID BEAUVIRONNOIS</t>
-  </si>
-  <si>
-    <t>ETIENNE LE PEILLET</t>
-  </si>
-  <si>
-    <t>JULIEN UNVOY</t>
-  </si>
-  <si>
-    <t>ALICE PACAUT</t>
-  </si>
-  <si>
-    <t>ANA EDDIE</t>
-  </si>
-  <si>
-    <t>ANA ROMAIN</t>
-  </si>
-  <si>
-    <t>SHIREL LALOUM</t>
-  </si>
-  <si>
-    <t>GC - Family - I-130</t>
-  </si>
-  <si>
-    <t>NATACHA HARKHAM</t>
-  </si>
-  <si>
-    <t>E-2 deriv</t>
-  </si>
-  <si>
-    <t>ANA RFE NIW</t>
-  </si>
-  <si>
-    <t>EVA AGASSE</t>
-  </si>
-  <si>
-    <t>SOHPIA ANDJORIN</t>
-  </si>
-  <si>
-    <t>dhs: 630</t>
-  </si>
-  <si>
-    <t>KLANIK</t>
-  </si>
-  <si>
-    <t>Consultation</t>
-  </si>
-  <si>
-    <t>ANA ANDRIJA</t>
-  </si>
-  <si>
-    <t>IVAN ARTEMEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA PRAKHAR </t>
-  </si>
-  <si>
-    <t>CHRISTIAN THIRION</t>
-  </si>
-  <si>
-    <t>Catégories</t>
-  </si>
-  <si>
-    <t>1-COS</t>
-  </si>
-  <si>
-    <t>2-EOS</t>
-  </si>
-  <si>
-    <t>1-Inv.</t>
-  </si>
-  <si>
-    <t>2-CP</t>
-  </si>
-  <si>
-    <t>3-USCIS</t>
-  </si>
-  <si>
-    <t>1-CP</t>
-  </si>
-  <si>
-    <t>2-USCIS</t>
-  </si>
-  <si>
-    <t>1-Initial</t>
-  </si>
-  <si>
-    <t>2-Extension</t>
-  </si>
-  <si>
-    <t>3-Transfer</t>
-  </si>
-  <si>
-    <t>4-CP</t>
-  </si>
-  <si>
-    <t>2-CP.1</t>
-  </si>
-  <si>
-    <t>1-Employement</t>
-  </si>
-  <si>
-    <t>2-AOS</t>
-  </si>
-  <si>
-    <t>3-I-140 &amp; AOS</t>
-  </si>
-  <si>
-    <t>4-CP.1</t>
-  </si>
-  <si>
-    <t>4-Perm</t>
-  </si>
-  <si>
-    <t>5-CP</t>
-  </si>
-  <si>
-    <t>1-I-526</t>
-  </si>
-  <si>
-    <t>2-AOS.1</t>
-  </si>
-  <si>
-    <t>3-I527 &amp; AOS</t>
-  </si>
-  <si>
-    <t>4-CP.2</t>
-  </si>
-  <si>
-    <t>I-829</t>
-  </si>
-  <si>
-    <t>2-I-130</t>
-  </si>
-  <si>
-    <t>4-I-130 &amp; AOS</t>
-  </si>
-  <si>
-    <t>5-CP.1</t>
-  </si>
-  <si>
-    <t>1-CP.1</t>
-  </si>
-  <si>
-    <t>2-AOS.2</t>
-  </si>
-  <si>
-    <t>Traditional</t>
-  </si>
-  <si>
-    <t>Marriage</t>
-  </si>
-  <si>
-    <t>Derivatives</t>
-  </si>
-  <si>
-    <t>Travel Permit</t>
-  </si>
-  <si>
-    <t>Work Permit</t>
-  </si>
-  <si>
-    <t>I-90</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Unnamed: 44</t>
-  </si>
-  <si>
-    <t>F-2</t>
-  </si>
-  <si>
-    <t>01     E-1 Trad.</t>
-  </si>
-  <si>
-    <t>02     E-1 Trad. Ren.</t>
-  </si>
-  <si>
-    <t>03     E-1  ESE</t>
-  </si>
-  <si>
-    <t>04     E-1 ESE Ren.</t>
-  </si>
-  <si>
-    <t>08     TN</t>
-  </si>
-  <si>
-    <t>09     K-1</t>
-  </si>
-  <si>
-    <t>10    Residence Permanente</t>
-  </si>
-  <si>
-    <t>12    EB-2/EB-3</t>
-  </si>
-  <si>
-    <t>13    EB-5</t>
-  </si>
-  <si>
-    <t>Family - LPR</t>
-  </si>
-  <si>
-    <t>6 - Lottery</t>
-  </si>
-  <si>
-    <t>DV lottery</t>
-  </si>
-  <si>
     <t>Categorie</t>
   </si>
   <si>
@@ -783,21 +821,12 @@
     <t>ModeReglement_ Ac1</t>
   </si>
   <si>
-    <t>Date Acompte 2</t>
-  </si>
-  <si>
     <t>ModeReglement_ Ac2</t>
   </si>
   <si>
-    <t>Date Acompte 3</t>
-  </si>
-  <si>
     <t>ModeReglement_ Ac3</t>
   </si>
   <si>
-    <t>Date Acompte 4</t>
-  </si>
-  <si>
     <t>ModeReglement_ Ac4</t>
   </si>
   <si>
@@ -811,24 +840,6 @@
   </si>
   <si>
     <t>Date réclamation</t>
-  </si>
-  <si>
-    <t>Sous-catégories</t>
-  </si>
-  <si>
-    <t>mode de paiement</t>
-  </si>
-  <si>
-    <t>Dossier accepté</t>
-  </si>
-  <si>
-    <t>Date acceptation</t>
-  </si>
-  <si>
-    <t>Date refus</t>
-  </si>
-  <si>
-    <t>Date annulation</t>
   </si>
 </sst>
 </file>
@@ -1226,11 +1237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A241B301-8D2A-4A73-BD10-B15CADE35284}">
   <dimension ref="A1:AB106"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,19 +1277,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1293,61 +1304,61 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -1355,13 +1366,13 @@
         <v>12001</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>45408</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -1381,19 +1392,19 @@
         <v>12888</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>45313</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>1910</v>
@@ -1407,19 +1418,19 @@
         <v>12904</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>45356</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>4300</v>
@@ -1436,19 +1447,19 @@
         <v>12908</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>45359</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1990</v>
@@ -1462,19 +1473,19 @@
         <v>12924</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45444</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>1590</v>
@@ -1488,19 +1499,19 @@
         <v>12936</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>45470</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>8700</v>
@@ -1514,16 +1525,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>45482</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>12550</v>
@@ -1546,16 +1557,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>45770</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>1400</v>
@@ -1569,19 +1580,19 @@
         <v>12941</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>45475</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>8850</v>
@@ -1595,19 +1606,19 @@
         <v>12942</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
         <v>45483</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>15000</v>
@@ -1618,19 +1629,19 @@
         <v>12943</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
         <v>45490</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>4350</v>
@@ -1647,19 +1658,19 @@
         <v>12945</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2">
         <v>45559</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>4500</v>
@@ -1682,19 +1693,19 @@
         <v>12946</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
         <v>45497</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>9550</v>
@@ -1708,19 +1719,19 @@
         <v>12950</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2">
         <v>45596</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>8850</v>
@@ -1737,19 +1748,19 @@
         <v>12951</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
         <v>45632</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>9500</v>
@@ -1764,7 +1775,7 @@
         <v>5397</v>
       </c>
       <c r="AB16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -1772,19 +1783,19 @@
         <v>12952</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2">
         <v>45589</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>2500</v>
@@ -1798,19 +1809,19 @@
         <v>12953</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2">
         <v>45620</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G18">
         <v>3600</v>
@@ -1827,16 +1838,16 @@
         <v>12954</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2">
         <v>45839</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>3250</v>
@@ -1850,19 +1861,19 @@
         <v>12958</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2">
         <v>45839</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>6250</v>
@@ -1873,19 +1884,19 @@
         <v>12961</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
         <v>45630</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3500</v>
@@ -1897,7 +1908,7 @@
         <v>4755</v>
       </c>
       <c r="AB21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -1905,19 +1916,19 @@
         <v>12962</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <v>45630</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>3500</v>
@@ -1928,19 +1939,19 @@
         <v>12966</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2">
         <v>45629</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>3500</v>
@@ -1951,19 +1962,19 @@
         <v>12967</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2">
         <v>45628</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>9200</v>
@@ -1980,19 +1991,19 @@
         <v>12969</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2">
         <v>45589</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>5100</v>
@@ -2006,22 +2017,22 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2">
         <v>45620</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>3790</v>
@@ -2035,22 +2046,22 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2">
         <v>45620</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <v>1050</v>
@@ -2061,19 +2072,19 @@
         <v>12972</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2">
         <v>45559</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1490</v>
@@ -2087,19 +2098,19 @@
         <v>12977</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2">
         <v>45629</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G29">
         <v>3500</v>
@@ -2113,19 +2124,19 @@
         <v>12978</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2">
         <v>45631</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G30">
         <v>4700</v>
@@ -2142,19 +2153,19 @@
         <v>12981</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2">
         <v>45632</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>3500</v>
@@ -2171,19 +2182,19 @@
         <v>12984</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2">
         <v>45637</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>4000</v>
@@ -2195,7 +2206,7 @@
         <v>2750</v>
       </c>
       <c r="AB32" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -2203,16 +2214,16 @@
         <v>12986</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2">
         <v>45650</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G33">
         <v>8000</v>
@@ -2226,19 +2237,19 @@
         <v>12987</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2">
         <v>45627</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G34">
         <v>4000</v>
@@ -2252,19 +2263,19 @@
         <v>12988</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2">
         <v>45658</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>3500</v>
@@ -2281,19 +2292,19 @@
         <v>12989</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2">
         <v>45658</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>9200</v>
@@ -2307,19 +2318,19 @@
         <v>12990</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2">
         <v>45689</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>2590</v>
@@ -2331,7 +2342,7 @@
         <v>1315</v>
       </c>
       <c r="AB37" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -2339,19 +2350,19 @@
         <v>12992</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2">
         <v>45658</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G38">
         <v>2590</v>
@@ -2360,7 +2371,7 @@
         <v>2547.9299999999998</v>
       </c>
       <c r="AB38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -2368,19 +2379,19 @@
         <v>12993</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2">
         <v>45658</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>5250</v>
@@ -2394,19 +2405,19 @@
         <v>12994</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2">
         <v>45741</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -2420,19 +2431,19 @@
         <v>12995</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2">
         <v>45689</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>10500</v>
@@ -2449,19 +2460,19 @@
         <v>12996</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2">
         <v>45689</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G42">
         <v>14800</v>
@@ -2472,19 +2483,19 @@
         <v>12997</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2">
         <v>45658</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1590</v>
@@ -2495,22 +2506,22 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2">
         <v>45658</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G44">
         <v>5000</v>
@@ -2524,33 +2535,33 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2">
         <v>45658</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2">
         <v>45689</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G46">
         <v>2500</v>
@@ -2559,21 +2570,21 @@
         <v>2504.23</v>
       </c>
       <c r="AB46" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2">
         <v>45689</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>2500</v>
@@ -2584,19 +2595,19 @@
         <v>13000</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2">
         <v>45689</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G48">
         <v>1590</v>
@@ -2610,19 +2621,19 @@
         <v>13001</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C49" s="2">
         <v>45689</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G49">
         <v>1590</v>
@@ -2636,19 +2647,19 @@
         <v>13002</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2">
         <v>45689</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G50">
         <v>6000</v>
@@ -2662,19 +2673,19 @@
         <v>13003</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2">
         <v>45729</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G51">
         <v>5000</v>
@@ -2686,7 +2697,7 @@
         <v>4000</v>
       </c>
       <c r="AB51" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
@@ -2694,19 +2705,19 @@
         <v>13004</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2">
         <v>45748</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G52">
         <v>6000</v>
@@ -2715,7 +2726,7 @@
         <v>2000</v>
       </c>
       <c r="AB52" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -2723,19 +2734,19 @@
         <v>13005</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2">
         <v>45723</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G53">
         <v>5000</v>
@@ -2752,19 +2763,19 @@
         <v>13006</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2">
         <v>45722</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G54">
         <v>3150</v>
@@ -2778,22 +2789,22 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C55" s="2">
         <v>45726</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G55">
         <v>2000</v>
@@ -2802,27 +2813,27 @@
         <v>2000</v>
       </c>
       <c r="AB55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2">
         <v>45726</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <v>2500</v>
@@ -2833,19 +2844,19 @@
         <v>13008</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2">
         <v>45727</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G57">
         <v>1490</v>
@@ -2854,7 +2865,7 @@
         <v>1490</v>
       </c>
       <c r="AB57" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -2862,19 +2873,19 @@
         <v>13009</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2">
         <v>45728</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G58">
         <v>2500</v>
@@ -2888,16 +2899,16 @@
         <v>13010</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2">
         <v>45735</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G59">
         <v>2790</v>
@@ -2911,19 +2922,19 @@
         <v>13011</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2">
         <v>45761</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1630</v>
@@ -2932,7 +2943,7 @@
         <v>1630</v>
       </c>
       <c r="AB60" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -2940,16 +2951,16 @@
         <v>13012</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2">
         <v>45761</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G61">
         <v>8000</v>
@@ -2963,19 +2974,19 @@
         <v>13013</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2">
         <v>45763</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G62">
         <v>1490</v>
@@ -2989,19 +3000,19 @@
         <v>13014</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2">
         <v>45764</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>3500</v>
@@ -3015,19 +3026,19 @@
         <v>13015</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2">
         <v>45734</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G64">
         <v>1790</v>
@@ -3036,7 +3047,7 @@
         <v>1781</v>
       </c>
       <c r="AB64" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
@@ -3044,19 +3055,19 @@
         <v>13016</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C65" s="2">
         <v>45734</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G65">
         <v>3380</v>
@@ -3065,7 +3076,7 @@
         <v>3409.62</v>
       </c>
       <c r="AB65" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
@@ -3073,19 +3084,19 @@
         <v>13017</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C66" s="2">
         <v>45764</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G66">
         <v>6000</v>
@@ -3102,19 +3113,19 @@
         <v>13018</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2">
         <v>45834</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G67">
         <v>4350</v>
@@ -3128,19 +3139,19 @@
         <v>13019</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C68" s="2">
         <v>45783</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1990</v>
@@ -3154,19 +3165,19 @@
         <v>13020</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2">
         <v>45783</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1590</v>
@@ -3180,19 +3191,19 @@
         <v>13021</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2">
         <v>45791</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G70">
         <v>9000</v>
@@ -3209,19 +3220,19 @@
         <v>13022</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2">
         <v>45849</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G71">
         <v>4790</v>
@@ -3232,22 +3243,22 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2">
         <v>45828</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>4500</v>
@@ -3258,22 +3269,22 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C73" s="2">
         <v>45828</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G73">
         <v>2500</v>
@@ -3284,19 +3295,19 @@
         <v>13024</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C74" s="2">
         <v>45828</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
@@ -3304,19 +3315,19 @@
         <v>13025</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2">
         <v>45828</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
@@ -3324,19 +3335,19 @@
         <v>13026</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C76" s="2">
         <v>45828</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
@@ -3344,19 +3355,19 @@
         <v>13027</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2">
         <v>45828</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G77">
         <v>4500</v>
@@ -3367,19 +3378,19 @@
         <v>13028</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C78" s="2">
         <v>45793</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I78">
         <v>3359.01</v>
@@ -3393,19 +3404,19 @@
         <v>13029</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C79" s="2">
         <v>45925</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G79">
         <v>1590</v>
@@ -3419,19 +3430,19 @@
         <v>13030</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C80" s="2">
         <v>45925</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.35">
@@ -3439,19 +3450,19 @@
         <v>13031</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C81" s="2">
         <v>45925</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I81">
         <v>4680.25</v>
@@ -3462,19 +3473,19 @@
         <v>13032</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2">
         <v>45925</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I82">
         <v>1590</v>
@@ -3485,19 +3496,19 @@
         <v>13033</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2">
         <v>45925</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
@@ -3505,19 +3516,19 @@
         <v>13034</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C84" s="2">
         <v>45901</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I84">
         <v>1790</v>
@@ -3528,16 +3539,16 @@
         <v>13035</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2">
         <v>45891</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I85">
         <v>8021.94</v>
@@ -3548,16 +3559,16 @@
         <v>13036</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C86" s="2">
         <v>45891</v>
       </c>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
@@ -3565,19 +3576,19 @@
         <v>13037</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2">
         <v>45898</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I87">
         <v>4375</v>
@@ -3588,19 +3599,19 @@
         <v>13038</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C88" s="2">
         <v>45898</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.35">
@@ -3608,19 +3619,19 @@
         <v>13039</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C89" s="2">
         <v>45898</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.35">
@@ -3628,19 +3639,19 @@
         <v>13040</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C90" s="2">
         <v>45898</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.35">
@@ -3648,25 +3659,25 @@
         <v>13041</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2">
         <v>45895</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I91">
         <v>3191.15</v>
       </c>
       <c r="AB91" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.35">
@@ -3674,19 +3685,19 @@
         <v>13042</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2">
         <v>45672</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I92">
         <v>5675</v>
@@ -3700,19 +3711,19 @@
         <v>13043</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C93" s="2">
         <v>45689</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <v>1800</v>
@@ -3723,19 +3734,19 @@
         <v>13044</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C94" s="2">
         <v>45777</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I94">
         <v>1100</v>
@@ -3749,19 +3760,19 @@
         <v>13045</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C95" s="2">
         <v>45789</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G95">
         <v>2000</v>
@@ -3775,19 +3786,19 @@
         <v>13046</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C96" s="2">
         <v>45792</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G96">
         <v>1680</v>
@@ -3801,19 +3812,19 @@
         <v>13047</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2">
         <v>45804</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G97">
         <v>4400</v>
@@ -3827,19 +3838,19 @@
         <v>13048</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C98" s="2">
         <v>45835</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I98">
         <v>2025</v>
@@ -3850,28 +3861,28 @@
         <v>13049</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C99" s="2">
         <v>45835</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I99">
         <v>1590</v>
       </c>
       <c r="AB99" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.35">
@@ -3879,19 +3890,19 @@
         <v>13050</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C100" s="2">
         <v>45813</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G100">
         <v>350</v>
@@ -3905,19 +3916,19 @@
         <v>13051</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2">
         <v>45887</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G101">
         <v>1201</v>
@@ -3931,19 +3942,19 @@
         <v>13052</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C102" s="2">
         <v>45901</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I102">
         <v>1700</v>
@@ -3954,19 +3965,19 @@
         <v>13053</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C103" s="2">
         <v>45925</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I103">
         <v>1741</v>
@@ -3977,16 +3988,16 @@
         <v>13054</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2">
         <v>45925</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I104">
         <v>1950</v>
@@ -3997,19 +4008,19 @@
         <v>13055</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2">
         <v>45925</v>
       </c>
       <c r="D105" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.35">
@@ -4017,182 +4028,176 @@
         <v>13056</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C106" s="2">
         <v>45925</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133673BC-64CF-43B7-93E6-A9433D7CFAE0}">
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="AP1" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4201,12 +4206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4215,12 +4220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4229,12 +4234,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4243,12 +4248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4260,12 +4265,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -4274,12 +4279,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4288,12 +4293,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4302,12 +4307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4316,12 +4321,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4330,12 +4335,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4344,12 +4349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4358,12 +4363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4378,12 +4383,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4398,12 +4403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4420,10 +4425,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4440,10 +4445,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4454,10 +4459,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -4465,10 +4470,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -4488,10 +4493,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -4511,10 +4516,10 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -4534,18 +4539,18 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -4562,18 +4567,18 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -4590,18 +4595,18 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -4618,10 +4623,10 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AI29">
         <v>1</v>
@@ -4655,43 +4660,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D945605-D4F0-4275-BC35-3EC3BFE001AA}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -4701,22 +4706,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
@@ -4726,105 +4731,105 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E7C0C2-9867-4284-8DB5-C8CC53E6BCF0}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>